--- a/Avaritilax/alchemy.xlsx
+++ b/Avaritilax/alchemy.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intern\Downloads\Avaritilax\Avaritilax-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mewtw\Projects\coding projects\Avaritilax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7C259E-F23F-438F-9FD3-96ED908C5CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -152,9 +151,6 @@
     <t>Diamond Pickaxe</t>
   </si>
   <si>
-    <t>Can mine everything</t>
-  </si>
-  <si>
     <t>Soulstone Pickaxe</t>
   </si>
   <si>
@@ -244,11 +240,20 @@
   <si>
     <t>Implemented</t>
   </si>
+  <si>
+    <t>Achi</t>
+  </si>
+  <si>
+    <t>Can mine everything except soulgem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can mine everything   </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -339,11 +344,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -379,9 +395,12 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -680,33 +699,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AB102"/>
+  <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7265625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="28" width="13.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" style="9" customWidth="1"/>
+    <col min="3" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="29" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -717,77 +737,80 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -803,21 +826,21 @@
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
+        <v>1051</v>
+      </c>
+      <c r="G2" s="6">
         <v>10</v>
       </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
         <v>5</v>
       </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
       <c r="K2" s="7">
         <v>0</v>
       </c>
@@ -872,8 +895,11 @@
       <c r="AB2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -889,24 +915,24 @@
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
+        <v>1052</v>
+      </c>
+      <c r="G3" s="6">
         <v>20</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
       <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
         <v>2</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>3</v>
       </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
       <c r="L3" s="7">
         <v>0</v>
       </c>
@@ -958,8 +984,11 @@
       <c r="AB3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -975,36 +1004,36 @@
       <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
+        <v>1053</v>
+      </c>
+      <c r="G4" s="6">
         <v>20</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
         <v>2</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
         <v>3</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
       <c r="P4" s="7">
         <v>0</v>
       </c>
@@ -1044,8 +1073,11 @@
       <c r="AB4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1061,21 +1093,21 @@
       <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
+        <v>1054</v>
+      </c>
+      <c r="G5" s="6">
         <v>50</v>
       </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
         <v>4</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
       <c r="K5" s="7">
         <v>0</v>
       </c>
@@ -1094,12 +1126,12 @@
       <c r="P5" s="7">
         <v>0</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
         <v>3</v>
       </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
       <c r="S5" s="7">
         <v>0</v>
       </c>
@@ -1130,8 +1162,11 @@
       <c r="AB5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1147,21 +1182,21 @@
       <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="2">
+        <v>1055</v>
+      </c>
+      <c r="G6" s="6">
         <v>100</v>
       </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
         <v>8</v>
       </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
       <c r="K6" s="7">
         <v>0</v>
       </c>
@@ -1198,12 +1233,12 @@
       <c r="V6" s="7">
         <v>0</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
         <v>3</v>
       </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
       <c r="Y6" s="7">
         <v>0</v>
       </c>
@@ -1216,8 +1251,11 @@
       <c r="AB6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1228,26 +1266,26 @@
         <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
+        <v>1056</v>
+      </c>
+      <c r="G7" s="6">
         <v>200</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
         <v>16</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
       <c r="K7" s="7">
         <v>0</v>
       </c>
@@ -1287,12 +1325,12 @@
       <c r="W7" s="7">
         <v>0</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
         <v>3</v>
       </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
       <c r="Z7" s="7">
         <v>0</v>
       </c>
@@ -1302,8 +1340,11 @@
       <c r="AB7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1311,26 +1352,29 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
+        <v>1057</v>
+      </c>
+      <c r="G8" s="6">
         <v>333</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
         <v>32</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
       <c r="K8" s="7">
         <v>0</v>
       </c>
@@ -1379,23 +1423,23 @@
       <c r="Z8" s="7">
         <v>0</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8">
         <v>2</v>
       </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="12">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
@@ -1459,17 +1503,17 @@
       <c r="AB9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
@@ -1533,17 +1577,17 @@
       <c r="AB10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
@@ -1607,17 +1651,17 @@
       <c r="AB11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="12">
         <v>0</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -1681,17 +1725,17 @@
       <c r="AB12" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="12">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -1755,17 +1799,17 @@
       <c r="AB13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="12">
         <v>0</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -1829,17 +1873,17 @@
       <c r="AB14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
@@ -1903,17 +1947,17 @@
       <c r="AB15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="12">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
@@ -1977,17 +2021,17 @@
       <c r="AB16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="12">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
@@ -2051,17 +2095,17 @@
       <c r="AB17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="12">
         <v>0</v>
       </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
@@ -2125,17 +2169,17 @@
       <c r="AB18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="12">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
@@ -2199,17 +2243,17 @@
       <c r="AB19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
@@ -2273,17 +2317,17 @@
       <c r="AB20" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="12">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
@@ -2347,8 +2391,11 @@
       <c r="AB21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2356,32 +2403,32 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="F22" s="2">
+        <v>1061</v>
+      </c>
+      <c r="G22" s="6">
         <v>50</v>
       </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7">
         <v>0</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
         <v>8</v>
       </c>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
       <c r="L22" s="7">
         <v>0</v>
       </c>
@@ -2433,8 +2480,11 @@
       <c r="AB22" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -2442,20 +2492,18 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="6">
+        <v>42</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6">
         <v>200</v>
       </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
@@ -2465,30 +2513,30 @@
       <c r="J23" s="7">
         <v>0</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
         <v>4</v>
       </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
         <v>4</v>
       </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
       <c r="O23" s="7">
         <v>0</v>
       </c>
       <c r="P23" s="7">
         <v>0</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="7">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
         <v>4</v>
       </c>
-      <c r="R23" s="7">
-        <v>0</v>
-      </c>
       <c r="S23" s="7">
         <v>0</v>
       </c>
@@ -2519,8 +2567,11 @@
       <c r="AB23" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -2528,20 +2579,18 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="6">
+        <v>42</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6">
         <v>200</v>
       </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
@@ -2557,24 +2606,24 @@
       <c r="L24" s="7">
         <v>0</v>
       </c>
-      <c r="M24" s="8">
-        <v>8</v>
+      <c r="M24" s="7">
+        <v>0</v>
       </c>
       <c r="N24" s="8">
         <v>8</v>
       </c>
-      <c r="O24" s="7">
-        <v>0</v>
+      <c r="O24" s="8">
+        <v>8</v>
       </c>
       <c r="P24" s="7">
         <v>0</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
         <v>4</v>
       </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
       <c r="S24" s="7">
         <v>0</v>
       </c>
@@ -2605,17 +2654,17 @@
       <c r="AB24" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="12">
         <v>0</v>
       </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
@@ -2679,17 +2728,17 @@
       <c r="AB25" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="12">
         <v>0</v>
       </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
@@ -2753,17 +2802,17 @@
       <c r="AB26" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="12">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
@@ -2827,17 +2876,17 @@
       <c r="AB27" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" s="12">
         <v>0</v>
       </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
@@ -2901,17 +2950,17 @@
       <c r="AB28" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" s="12">
         <v>0</v>
       </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
@@ -2975,17 +3024,17 @@
       <c r="AB29" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>28</v>
       </c>
       <c r="B30" s="12">
         <v>0</v>
       </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
@@ -3049,17 +3098,17 @@
       <c r="AB30" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>29</v>
       </c>
       <c r="B31" s="12">
         <v>0</v>
       </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
@@ -3123,8 +3172,11 @@
       <c r="AB31" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -3132,32 +3184,30 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="F32" s="2"/>
+      <c r="G32" s="6">
         <v>200</v>
       </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7">
         <v>0</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="8">
         <v>8</v>
       </c>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
       <c r="L32" s="7">
         <v>0</v>
       </c>
@@ -3173,12 +3223,12 @@
       <c r="P32" s="7">
         <v>0</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
         <v>4</v>
       </c>
-      <c r="R32" s="7">
-        <v>0</v>
-      </c>
       <c r="S32" s="7">
         <v>0</v>
       </c>
@@ -3209,17 +3259,17 @@
       <c r="AB32" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>31</v>
       </c>
       <c r="B33" s="12">
         <v>0</v>
       </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
@@ -3283,17 +3333,17 @@
       <c r="AB33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>32</v>
       </c>
       <c r="B34" s="12">
         <v>0</v>
       </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
@@ -3357,17 +3407,17 @@
       <c r="AB34" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="12">
         <v>0</v>
       </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
@@ -3431,17 +3481,17 @@
       <c r="AB35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>34</v>
       </c>
       <c r="B36" s="12">
         <v>0</v>
       </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
@@ -3505,17 +3555,17 @@
       <c r="AB36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37" s="12">
         <v>0</v>
       </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
@@ -3579,17 +3629,17 @@
       <c r="AB37" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>36</v>
       </c>
       <c r="B38" s="12">
         <v>0</v>
       </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
@@ -3653,17 +3703,17 @@
       <c r="AB38" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>37</v>
       </c>
       <c r="B39" s="12">
         <v>0</v>
       </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
@@ -3727,17 +3777,17 @@
       <c r="AB39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>38</v>
       </c>
       <c r="B40" s="12">
         <v>0</v>
       </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
@@ -3801,17 +3851,17 @@
       <c r="AB40" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>39</v>
       </c>
       <c r="B41" s="12">
         <v>0</v>
       </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
@@ -3875,8 +3925,11 @@
       <c r="AB41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -3884,32 +3937,30 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="F42" s="2"/>
+      <c r="G42" s="6">
         <v>200</v>
       </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7">
         <v>0</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="8">
         <v>8</v>
       </c>
-      <c r="K42" s="7">
-        <v>0</v>
-      </c>
       <c r="L42" s="7">
         <v>0</v>
       </c>
@@ -3925,12 +3976,12 @@
       <c r="P42" s="7">
         <v>0</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8">
         <v>4</v>
       </c>
-      <c r="R42" s="7">
-        <v>0</v>
-      </c>
       <c r="S42" s="7">
         <v>0</v>
       </c>
@@ -3961,17 +4012,17 @@
       <c r="AB42" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41</v>
       </c>
       <c r="B43" s="12">
         <v>0</v>
       </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
@@ -4035,17 +4086,17 @@
       <c r="AB43" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>42</v>
       </c>
       <c r="B44" s="12">
         <v>0</v>
       </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
@@ -4109,17 +4160,17 @@
       <c r="AB44" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43</v>
       </c>
       <c r="B45" s="12">
         <v>0</v>
       </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
@@ -4183,17 +4234,17 @@
       <c r="AB45" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>44</v>
       </c>
       <c r="B46" s="12">
         <v>0</v>
       </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
@@ -4257,17 +4308,17 @@
       <c r="AB46" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>45</v>
       </c>
       <c r="B47" s="12">
         <v>0</v>
       </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
@@ -4331,17 +4382,17 @@
       <c r="AB47" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>46</v>
       </c>
       <c r="B48" s="12">
         <v>0</v>
       </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
@@ -4405,17 +4456,17 @@
       <c r="AB48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>47</v>
       </c>
       <c r="B49" s="12">
         <v>0</v>
       </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
@@ -4479,17 +4530,17 @@
       <c r="AB49" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>48</v>
       </c>
       <c r="B50" s="12">
         <v>0</v>
       </c>
-      <c r="G50" s="7">
-        <v>0</v>
-      </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
@@ -4553,17 +4604,17 @@
       <c r="AB50" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>49</v>
       </c>
       <c r="B51" s="12">
         <v>0</v>
       </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
@@ -4627,8 +4678,11 @@
       <c r="AB51" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -4636,17 +4690,15 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="6">
+      <c r="F52" s="2"/>
+      <c r="G52" s="6">
         <v>100</v>
       </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
       <c r="H52" s="7">
         <v>0</v>
       </c>
@@ -4656,12 +4708,12 @@
       <c r="J52" s="7">
         <v>0</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
         <v>10</v>
       </c>
-      <c r="L52" s="7">
-        <v>0</v>
-      </c>
       <c r="M52" s="7">
         <v>0</v>
       </c>
@@ -4710,8 +4762,11 @@
       <c r="AB52" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>51</v>
       </c>
@@ -4719,17 +4774,15 @@
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" s="6">
+        <v>54</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="6">
         <v>100</v>
       </c>
-      <c r="G53" s="7">
-        <v>0</v>
-      </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
@@ -4745,14 +4798,14 @@
       <c r="L53" s="7">
         <v>0</v>
       </c>
-      <c r="M53" s="8">
-        <v>10</v>
+      <c r="M53" s="7">
+        <v>0</v>
       </c>
       <c r="N53" s="8">
         <v>10</v>
       </c>
-      <c r="O53" s="7">
-        <v>0</v>
+      <c r="O53" s="8">
+        <v>10</v>
       </c>
       <c r="P53" s="7">
         <v>0</v>
@@ -4793,8 +4846,11 @@
       <c r="AB53" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -4802,17 +4858,15 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54" s="6">
+        <v>54</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="6">
         <v>200</v>
       </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
@@ -4843,12 +4897,12 @@
       <c r="Q54" s="7">
         <v>0</v>
       </c>
-      <c r="R54" s="8">
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+      <c r="S54" s="8">
         <v>10</v>
       </c>
-      <c r="S54" s="7">
-        <v>0</v>
-      </c>
       <c r="T54" s="7">
         <v>0</v>
       </c>
@@ -4876,8 +4930,11 @@
       <c r="AB54" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>53</v>
       </c>
@@ -4885,17 +4942,15 @@
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="6">
+        <v>54</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="6">
         <v>400</v>
       </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
       <c r="H55" s="7">
         <v>0</v>
       </c>
@@ -4932,12 +4987,12 @@
       <c r="S55" s="7">
         <v>0</v>
       </c>
-      <c r="T55" s="8">
+      <c r="T55" s="7">
+        <v>0</v>
+      </c>
+      <c r="U55" s="8">
         <v>10</v>
       </c>
-      <c r="U55" s="7">
-        <v>0</v>
-      </c>
       <c r="V55" s="7">
         <v>0</v>
       </c>
@@ -4959,8 +5014,11 @@
       <c r="AB55" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -4968,17 +5026,15 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="6">
+        <v>54</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="6">
         <v>600</v>
       </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
       <c r="H56" s="7">
         <v>0</v>
       </c>
@@ -5021,12 +5077,12 @@
       <c r="U56" s="7">
         <v>0</v>
       </c>
-      <c r="V56" s="8">
+      <c r="V56" s="7">
+        <v>0</v>
+      </c>
+      <c r="W56" s="8">
         <v>10</v>
       </c>
-      <c r="W56" s="7">
-        <v>0</v>
-      </c>
       <c r="X56" s="7">
         <v>0</v>
       </c>
@@ -5042,8 +5098,11 @@
       <c r="AB56" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -5051,17 +5110,15 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="6">
+        <v>54</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="6">
         <v>800</v>
       </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
       <c r="H57" s="7">
         <v>0</v>
       </c>
@@ -5113,20 +5170,23 @@
       <c r="X57" s="7">
         <v>0</v>
       </c>
-      <c r="Y57" s="8">
+      <c r="Y57" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="8">
         <v>10</v>
       </c>
-      <c r="Z57" s="7">
-        <v>0</v>
-      </c>
       <c r="AA57" s="7">
         <v>0</v>
       </c>
       <c r="AB57" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -5134,17 +5194,15 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F58" s="6">
+        <v>54</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="6">
         <v>1000</v>
       </c>
-      <c r="G58" s="7">
-        <v>0</v>
-      </c>
       <c r="H58" s="7">
         <v>0</v>
       </c>
@@ -5199,26 +5257,26 @@
       <c r="Y58" s="7">
         <v>0</v>
       </c>
-      <c r="Z58" s="8">
+      <c r="Z58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="8">
         <v>10</v>
       </c>
-      <c r="AA58" s="7">
-        <v>0</v>
-      </c>
       <c r="AB58" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>57</v>
       </c>
       <c r="B59" s="12">
         <v>0</v>
       </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
       <c r="H59" s="7">
         <v>0</v>
       </c>
@@ -5282,17 +5340,17 @@
       <c r="AB59" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>58</v>
       </c>
       <c r="B60" s="12">
         <v>0</v>
       </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
       <c r="H60" s="7">
         <v>0</v>
       </c>
@@ -5356,17 +5414,17 @@
       <c r="AB60" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>59</v>
       </c>
       <c r="B61" s="12">
         <v>0</v>
       </c>
-      <c r="G61" s="7">
-        <v>0</v>
-      </c>
       <c r="H61" s="7">
         <v>0</v>
       </c>
@@ -5430,8 +5488,11 @@
       <c r="AB61" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -5439,29 +5500,27 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" s="6">
+      <c r="F62" s="2"/>
+      <c r="G62" s="6">
         <v>1000</v>
       </c>
-      <c r="G62" s="8">
+      <c r="H62" s="8">
         <v>1</v>
       </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="8">
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="8">
         <v>100</v>
       </c>
-      <c r="J62" s="7">
-        <v>0</v>
-      </c>
       <c r="K62" s="7">
         <v>0</v>
       </c>
@@ -5495,14 +5554,14 @@
       <c r="U62" s="7">
         <v>0</v>
       </c>
-      <c r="V62" s="8">
-        <v>10</v>
+      <c r="V62" s="7">
+        <v>0</v>
       </c>
       <c r="W62" s="8">
         <v>10</v>
       </c>
-      <c r="X62" s="7">
-        <v>0</v>
+      <c r="X62" s="8">
+        <v>10</v>
       </c>
       <c r="Y62" s="7">
         <v>0</v>
@@ -5513,11 +5572,14 @@
       <c r="AA62" s="7">
         <v>0</v>
       </c>
-      <c r="AB62" s="8">
+      <c r="AB62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>61</v>
       </c>
@@ -5525,37 +5587,35 @@
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="6">
+        <v>63</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="6">
         <v>1000</v>
       </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
-      <c r="H63" s="8">
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
         <v>1</v>
       </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
       <c r="J63" s="7">
         <v>0</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="7">
+        <v>0</v>
+      </c>
+      <c r="L63" s="8">
         <v>3</v>
       </c>
-      <c r="L63" s="7">
-        <v>0</v>
-      </c>
-      <c r="M63" s="8">
-        <v>3</v>
+      <c r="M63" s="7">
+        <v>0</v>
       </c>
       <c r="N63" s="8">
         <v>3</v>
@@ -5563,47 +5623,50 @@
       <c r="O63" s="8">
         <v>3</v>
       </c>
-      <c r="P63" s="7">
-        <v>0</v>
+      <c r="P63" s="8">
+        <v>3</v>
       </c>
       <c r="Q63" s="7">
         <v>0</v>
       </c>
-      <c r="R63" s="8">
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="S63" s="8">
         <v>3</v>
       </c>
-      <c r="S63" s="7">
-        <v>0</v>
-      </c>
-      <c r="T63" s="8">
+      <c r="T63" s="7">
+        <v>0</v>
+      </c>
+      <c r="U63" s="8">
         <v>3</v>
       </c>
-      <c r="U63" s="7">
-        <v>0</v>
-      </c>
-      <c r="V63" s="8">
-        <v>3</v>
+      <c r="V63" s="7">
+        <v>0</v>
       </c>
       <c r="W63" s="8">
         <v>3</v>
       </c>
-      <c r="X63" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="8">
+      <c r="X63" s="8">
         <v>3</v>
+      </c>
+      <c r="Y63" s="7">
+        <v>0</v>
       </c>
       <c r="Z63" s="8">
         <v>3</v>
       </c>
-      <c r="AA63" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="8">
+      <c r="AA63" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -5611,38 +5674,36 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F64" s="6">
+        <v>63</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="6">
         <v>1000</v>
       </c>
-      <c r="G64" s="8">
+      <c r="H64" s="8">
         <v>1</v>
       </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
       <c r="I64" s="7">
         <v>0</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="8">
         <v>10</v>
       </c>
-      <c r="K64" s="7">
-        <v>0</v>
-      </c>
-      <c r="L64" s="8">
+      <c r="L64" s="7">
+        <v>0</v>
+      </c>
+      <c r="M64" s="8">
         <v>10</v>
       </c>
-      <c r="M64" s="7">
-        <v>0</v>
-      </c>
       <c r="N64" s="7">
         <v>0</v>
       </c>
@@ -5652,12 +5713,12 @@
       <c r="P64" s="7">
         <v>0</v>
       </c>
-      <c r="Q64" s="8">
+      <c r="Q64" s="7">
+        <v>0</v>
+      </c>
+      <c r="R64" s="8">
         <v>10</v>
       </c>
-      <c r="R64" s="7">
-        <v>0</v>
-      </c>
       <c r="S64" s="7">
         <v>0</v>
       </c>
@@ -5667,12 +5728,12 @@
       <c r="U64" s="7">
         <v>0</v>
       </c>
-      <c r="V64" s="8">
+      <c r="V64" s="7">
+        <v>0</v>
+      </c>
+      <c r="W64" s="8">
         <v>10</v>
       </c>
-      <c r="W64" s="7">
-        <v>0</v>
-      </c>
       <c r="X64" s="7">
         <v>0</v>
       </c>
@@ -5685,20 +5746,20 @@
       <c r="AA64" s="7">
         <v>0</v>
       </c>
-      <c r="AB64" s="8">
+      <c r="AB64" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>63</v>
       </c>
       <c r="B65" s="12">
         <v>0</v>
       </c>
-      <c r="G65" s="7">
-        <v>0</v>
-      </c>
       <c r="H65" s="7">
         <v>0</v>
       </c>
@@ -5762,17 +5823,17 @@
       <c r="AB65" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>64</v>
       </c>
       <c r="B66" s="12">
         <v>0</v>
       </c>
-      <c r="G66" s="7">
-        <v>0</v>
-      </c>
       <c r="H66" s="7">
         <v>0</v>
       </c>
@@ -5836,17 +5897,17 @@
       <c r="AB66" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>65</v>
       </c>
       <c r="B67" s="12">
         <v>0</v>
       </c>
-      <c r="G67" s="7">
-        <v>0</v>
-      </c>
       <c r="H67" s="7">
         <v>0</v>
       </c>
@@ -5910,17 +5971,17 @@
       <c r="AB67" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>66</v>
       </c>
       <c r="B68" s="12">
         <v>0</v>
       </c>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
@@ -5984,17 +6045,17 @@
       <c r="AB68" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>67</v>
       </c>
       <c r="B69" s="12">
         <v>0</v>
       </c>
-      <c r="G69" s="7">
-        <v>0</v>
-      </c>
       <c r="H69" s="7">
         <v>0</v>
       </c>
@@ -6058,17 +6119,17 @@
       <c r="AB69" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>68</v>
       </c>
       <c r="B70" s="12">
         <v>0</v>
       </c>
-      <c r="G70" s="7">
-        <v>0</v>
-      </c>
       <c r="H70" s="7">
         <v>0</v>
       </c>
@@ -6132,17 +6193,17 @@
       <c r="AB70" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>69</v>
       </c>
       <c r="B71" s="12">
         <v>0</v>
       </c>
-      <c r="G71" s="7">
-        <v>0</v>
-      </c>
       <c r="H71" s="7">
         <v>0</v>
       </c>
@@ -6206,17 +6267,17 @@
       <c r="AB71" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>70</v>
       </c>
       <c r="B72" s="12">
         <v>0</v>
       </c>
-      <c r="G72" s="7">
-        <v>0</v>
-      </c>
       <c r="H72" s="7">
         <v>0</v>
       </c>
@@ -6280,17 +6341,17 @@
       <c r="AB72" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>71</v>
       </c>
       <c r="B73" s="12">
         <v>0</v>
       </c>
-      <c r="G73" s="7">
-        <v>0</v>
-      </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
@@ -6354,17 +6415,17 @@
       <c r="AB73" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>72</v>
       </c>
       <c r="B74" s="12">
         <v>0</v>
       </c>
-      <c r="G74" s="7">
-        <v>0</v>
-      </c>
       <c r="H74" s="7">
         <v>0</v>
       </c>
@@ -6428,17 +6489,17 @@
       <c r="AB74" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>73</v>
       </c>
       <c r="B75" s="12">
         <v>0</v>
       </c>
-      <c r="G75" s="7">
-        <v>0</v>
-      </c>
       <c r="H75" s="7">
         <v>0</v>
       </c>
@@ -6502,17 +6563,17 @@
       <c r="AB75" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>74</v>
       </c>
       <c r="B76" s="12">
         <v>0</v>
       </c>
-      <c r="G76" s="7">
-        <v>0</v>
-      </c>
       <c r="H76" s="7">
         <v>0</v>
       </c>
@@ -6576,17 +6637,17 @@
       <c r="AB76" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>75</v>
       </c>
       <c r="B77" s="12">
         <v>0</v>
       </c>
-      <c r="G77" s="7">
-        <v>0</v>
-      </c>
       <c r="H77" s="7">
         <v>0</v>
       </c>
@@ -6650,17 +6711,17 @@
       <c r="AB77" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>76</v>
       </c>
       <c r="B78" s="12">
         <v>0</v>
       </c>
-      <c r="G78" s="7">
-        <v>0</v>
-      </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
@@ -6724,17 +6785,17 @@
       <c r="AB78" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>77</v>
       </c>
       <c r="B79" s="12">
         <v>0</v>
       </c>
-      <c r="G79" s="7">
-        <v>0</v>
-      </c>
       <c r="H79" s="7">
         <v>0</v>
       </c>
@@ -6798,17 +6859,17 @@
       <c r="AB79" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>78</v>
       </c>
       <c r="B80" s="12">
         <v>0</v>
       </c>
-      <c r="G80" s="7">
-        <v>0</v>
-      </c>
       <c r="H80" s="7">
         <v>0</v>
       </c>
@@ -6872,17 +6933,17 @@
       <c r="AB80" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>79</v>
       </c>
       <c r="B81" s="12">
         <v>0</v>
       </c>
-      <c r="G81" s="7">
-        <v>0</v>
-      </c>
       <c r="H81" s="7">
         <v>0</v>
       </c>
@@ -6946,17 +7007,17 @@
       <c r="AB81" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>80</v>
       </c>
       <c r="B82" s="12">
         <v>0</v>
       </c>
-      <c r="G82" s="7">
-        <v>0</v>
-      </c>
       <c r="H82" s="7">
         <v>0</v>
       </c>
@@ -7020,17 +7081,17 @@
       <c r="AB82" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>81</v>
       </c>
       <c r="B83" s="12">
         <v>0</v>
       </c>
-      <c r="G83" s="7">
-        <v>0</v>
-      </c>
       <c r="H83" s="7">
         <v>0</v>
       </c>
@@ -7094,17 +7155,17 @@
       <c r="AB83" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>82</v>
       </c>
       <c r="B84" s="12">
         <v>0</v>
       </c>
-      <c r="G84" s="7">
-        <v>0</v>
-      </c>
       <c r="H84" s="7">
         <v>0</v>
       </c>
@@ -7168,17 +7229,17 @@
       <c r="AB84" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>83</v>
       </c>
       <c r="B85" s="12">
         <v>0</v>
       </c>
-      <c r="G85" s="7">
-        <v>0</v>
-      </c>
       <c r="H85" s="7">
         <v>0</v>
       </c>
@@ -7242,17 +7303,17 @@
       <c r="AB85" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>84</v>
       </c>
       <c r="B86" s="12">
         <v>0</v>
       </c>
-      <c r="G86" s="7">
-        <v>0</v>
-      </c>
       <c r="H86" s="7">
         <v>0</v>
       </c>
@@ -7316,17 +7377,17 @@
       <c r="AB86" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>85</v>
       </c>
       <c r="B87" s="12">
         <v>0</v>
       </c>
-      <c r="G87" s="7">
-        <v>0</v>
-      </c>
       <c r="H87" s="7">
         <v>0</v>
       </c>
@@ -7390,17 +7451,17 @@
       <c r="AB87" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>86</v>
       </c>
       <c r="B88" s="12">
         <v>0</v>
       </c>
-      <c r="G88" s="7">
-        <v>0</v>
-      </c>
       <c r="H88" s="7">
         <v>0</v>
       </c>
@@ -7464,17 +7525,17 @@
       <c r="AB88" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>87</v>
       </c>
       <c r="B89" s="12">
         <v>0</v>
       </c>
-      <c r="G89" s="7">
-        <v>0</v>
-      </c>
       <c r="H89" s="7">
         <v>0</v>
       </c>
@@ -7538,17 +7599,17 @@
       <c r="AB89" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>88</v>
       </c>
       <c r="B90" s="12">
         <v>0</v>
       </c>
-      <c r="G90" s="7">
-        <v>0</v>
-      </c>
       <c r="H90" s="7">
         <v>0</v>
       </c>
@@ -7612,17 +7673,17 @@
       <c r="AB90" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>89</v>
       </c>
       <c r="B91" s="12">
         <v>0</v>
       </c>
-      <c r="G91" s="7">
-        <v>0</v>
-      </c>
       <c r="H91" s="7">
         <v>0</v>
       </c>
@@ -7686,17 +7747,17 @@
       <c r="AB91" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>90</v>
       </c>
       <c r="B92" s="12">
         <v>0</v>
       </c>
-      <c r="G92" s="7">
-        <v>0</v>
-      </c>
       <c r="H92" s="7">
         <v>0</v>
       </c>
@@ -7760,17 +7821,17 @@
       <c r="AB92" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>91</v>
       </c>
       <c r="B93" s="12">
         <v>0</v>
       </c>
-      <c r="G93" s="7">
-        <v>0</v>
-      </c>
       <c r="H93" s="7">
         <v>0</v>
       </c>
@@ -7834,17 +7895,17 @@
       <c r="AB93" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>92</v>
       </c>
       <c r="B94" s="12">
         <v>0</v>
       </c>
-      <c r="G94" s="7">
-        <v>0</v>
-      </c>
       <c r="H94" s="7">
         <v>0</v>
       </c>
@@ -7908,17 +7969,17 @@
       <c r="AB94" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>93</v>
       </c>
       <c r="B95" s="12">
         <v>0</v>
       </c>
-      <c r="G95" s="7">
-        <v>0</v>
-      </c>
       <c r="H95" s="7">
         <v>0</v>
       </c>
@@ -7982,17 +8043,17 @@
       <c r="AB95" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>94</v>
       </c>
       <c r="B96" s="12">
         <v>0</v>
       </c>
-      <c r="G96" s="7">
-        <v>0</v>
-      </c>
       <c r="H96" s="7">
         <v>0</v>
       </c>
@@ -8056,17 +8117,17 @@
       <c r="AB96" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>95</v>
       </c>
       <c r="B97" s="12">
         <v>0</v>
       </c>
-      <c r="G97" s="7">
-        <v>0</v>
-      </c>
       <c r="H97" s="7">
         <v>0</v>
       </c>
@@ -8130,17 +8191,17 @@
       <c r="AB97" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>96</v>
       </c>
       <c r="B98" s="12">
         <v>0</v>
       </c>
-      <c r="G98" s="7">
-        <v>0</v>
-      </c>
       <c r="H98" s="7">
         <v>0</v>
       </c>
@@ -8204,17 +8265,17 @@
       <c r="AB98" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>97</v>
       </c>
       <c r="B99" s="12">
         <v>0</v>
       </c>
-      <c r="G99" s="7">
-        <v>0</v>
-      </c>
       <c r="H99" s="7">
         <v>0</v>
       </c>
@@ -8278,17 +8339,17 @@
       <c r="AB99" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>98</v>
       </c>
       <c r="B100" s="12">
         <v>0</v>
       </c>
-      <c r="G100" s="7">
-        <v>0</v>
-      </c>
       <c r="H100" s="7">
         <v>0</v>
       </c>
@@ -8352,17 +8413,17 @@
       <c r="AB100" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>99</v>
       </c>
       <c r="B101" s="12">
         <v>0</v>
       </c>
-      <c r="G101" s="7">
-        <v>0</v>
-      </c>
       <c r="H101" s="7">
         <v>0</v>
       </c>
@@ -8426,83 +8487,82 @@
       <c r="AB101" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G102" s="10">
-        <f t="shared" ref="G102:AB102" si="0">SUM(G2:G101)</f>
+      <c r="AC101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H102" s="10">
+        <f t="shared" ref="H102:AC102" si="0">SUM(H2:H101)</f>
         <v>2</v>
       </c>
-      <c r="H102" s="10">
+      <c r="I102" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I102" s="10">
+      <c r="J102" s="10">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="J102" s="10">
+      <c r="K102" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="K102" s="10">
+      <c r="L102" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="L102" s="10">
+      <c r="M102" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="M102" s="10">
+      <c r="N102" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="N102" s="10">
+      <c r="O102" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="O102" s="10">
+      <c r="P102" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P102" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="Q102" s="10">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R102" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="S102" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T102" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U102" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V102" s="10">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="W102" s="10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="X102" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Y102" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Z102" s="10">
         <f t="shared" si="0"/>
@@ -8510,9 +8570,13 @@
       </c>
       <c r="AA102" s="10">
         <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AB102" s="10">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB102" s="10">
+      <c r="AC102" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
